--- a/tools/TODO.xlsx
+++ b/tools/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>créer des data de cv remplis</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>questionnaire_reponse_choisi (rempli par l'info user)</t>
+  </si>
+  <si>
+    <t>progression</t>
   </si>
 </sst>
 </file>
@@ -155,8 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,143 +444,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.21875" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -581,23 +622,23 @@
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -605,7 +646,7 @@
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -613,7 +654,7 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -621,7 +662,7 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -629,7 +670,7 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -637,7 +678,7 @@
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -645,11 +686,12 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tools/TODO.xlsx
+++ b/tools/TODO.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="2eme fieretatory" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>créer des data de cv remplis</t>
   </si>
@@ -123,6 +124,93 @@
   </si>
   <si>
     <t>progression</t>
+  </si>
+  <si>
+    <t>inscription</t>
+  </si>
+  <si>
+    <t>dynamisation</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>message d'erreur</t>
+  </si>
+  <si>
+    <t>accueil</t>
+  </si>
+  <si>
+    <t>liste annonce where department ihany (sans filtre service)</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>creation table departement</t>
+  </si>
+  <si>
+    <t>users -&gt; Ajout col idDepartement</t>
+  </si>
+  <si>
+    <t>publier annonce -&gt; voir plus</t>
+  </si>
+  <si>
+    <t>selection CV -&gt; voir plus</t>
+  </si>
+  <si>
+    <t>liste cv where department ihany (sans filtre service)</t>
+  </si>
+  <si>
+    <t>liste des tests where dept ihany (sans filtre service)</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>creation service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recruter -&gt; creation critere </t>
+  </si>
+  <si>
+    <t>asina placeholder oe critere, option, coeff</t>
+  </si>
+  <si>
+    <t>integration an tsirairay</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>filtre annonce par dept</t>
+  </si>
+  <si>
+    <t>annonce</t>
+  </si>
+  <si>
+    <t>detail annonce</t>
+  </si>
+  <si>
+    <t>ajout boutton postuler</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>info user</t>
+  </si>
+  <si>
+    <t>generer cv a remplir</t>
+  </si>
+  <si>
+    <t>insertion cv</t>
+  </si>
+  <si>
+    <t>insertion cv_reponse</t>
   </si>
 </sst>
 </file>
@@ -446,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,4 +782,214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tools/TODO.xlsx
+++ b/tools/TODO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>créer des data de cv remplis</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>insertion cv_reponse</t>
+  </si>
+  <si>
+    <t>qui</t>
+  </si>
+  <si>
+    <t>ny avo</t>
+  </si>
+  <si>
+    <t>harena</t>
+  </si>
+  <si>
+    <t>selection entretien -&gt; voir plus</t>
   </si>
 </sst>
 </file>
@@ -786,10 +798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,9 +809,16 @@
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -809,8 +828,11 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -823,8 +845,11 @@
       <c r="G3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -834,8 +859,11 @@
       <c r="C4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -845,8 +873,11 @@
       <c r="C5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -856,8 +887,11 @@
       <c r="C6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -870,8 +904,11 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -884,8 +921,11 @@
       <c r="D8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -893,13 +933,16 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -909,8 +952,11 @@
       <c r="C10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -918,7 +964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -929,7 +975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -940,7 +986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -951,7 +997,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -974,6 +1020,9 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
       <c r="B18" t="s">
         <v>57</v>
       </c>
@@ -982,6 +1031,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
       <c r="B19" t="s">
         <v>57</v>
       </c>

--- a/tools/TODO.xlsx
+++ b/tools/TODO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>créer des data de cv remplis</t>
   </si>
@@ -223,13 +223,752 @@
   </si>
   <si>
     <t>selection entretien -&gt; voir plus</t>
+  </si>
+  <si>
+    <t>MIOVA NY VUE v_liste_cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOUVELLE VUE </t>
+  </si>
+  <si>
+    <t>-- recrutement dept</t>
+  </si>
+  <si>
+    <r>
+      <t>CREATE OR REPLACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v_recrutement_dept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> recrutements recru </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LEFT JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> services s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id_service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>recru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id_service_recrutement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LEFT JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> departements dept </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id_dept_service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id_dept</t>
+    </r>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>-- user departement</t>
+  </si>
+  <si>
+    <r>
+      <t>CREATE OR REPLACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v_user_dept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> users u </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LEFT JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> user_departements u_dept </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u_dept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id_user_user_dept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id_user</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LEFT JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> departements dept </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u_dept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id_dept_user_dept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id_dept</t>
+    </r>
+  </si>
+  <si>
+    <t>-- service departement</t>
+  </si>
+  <si>
+    <r>
+      <t>CREATE OR REPLACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v_service_dept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> services s </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,13 +976,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF88846F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF92672"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA6E22E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFAE81FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF272822"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -258,12 +1033,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,7 +1596,8 @@
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="7" max="7" width="35.77734375" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -873,6 +1661,9 @@
       <c r="C5" t="s">
         <v>40</v>
       </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
       <c r="H5" t="s">
         <v>64</v>
       </c>
@@ -887,6 +1678,9 @@
       <c r="C6" t="s">
         <v>41</v>
       </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
       <c r="H6" t="s">
         <v>64</v>
       </c>
@@ -904,6 +1698,9 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
       <c r="H7" t="s">
         <v>64</v>
       </c>
@@ -1041,7 +1838,124 @@
         <v>61</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tools/TODO.xlsx
+++ b/tools/TODO.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="2eme fieretatory" sheetId="2" r:id="rId2"/>
+    <sheet name="3 eme fieretatory - contrat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
   <si>
     <t>créer des data de cv remplis</t>
   </si>
@@ -962,6 +963,45 @@
       </rPr>
       <t xml:space="preserve"> services s </t>
     </r>
+  </si>
+  <si>
+    <t>liste des entretiens</t>
+  </si>
+  <si>
+    <t>detail entretien</t>
+  </si>
+  <si>
+    <t>choix d'embauche</t>
+  </si>
+  <si>
+    <t>liste futur emp</t>
+  </si>
+  <si>
+    <t>creation contrat essai</t>
+  </si>
+  <si>
+    <t>resume contrat essai</t>
+  </si>
+  <si>
+    <t>liste contrat essai</t>
+  </si>
+  <si>
+    <t>detail contrat essai</t>
+  </si>
+  <si>
+    <t>chgt contrat - choix contrat</t>
+  </si>
+  <si>
+    <t>Taches</t>
+  </si>
+  <si>
+    <t>Qui</t>
+  </si>
+  <si>
+    <t>maj insertion besoin recrutement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ny avo </t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -1958,4 +1998,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tools/TODO.xlsx
+++ b/tools/TODO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
   <si>
     <t>créer des data de cv remplis</t>
   </si>
@@ -1002,6 +1002,9 @@
   </si>
   <si>
     <t xml:space="preserve">ny avo </t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -2002,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2013,7 +2016,7 @@
     <col min="1" max="1" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -2045,23 +2048,29 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -2069,7 +2078,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -2077,7 +2086,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -2093,7 +2102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>

--- a/tools/TODO.xlsx
+++ b/tools/TODO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
   <si>
     <t>créer des data de cv remplis</t>
   </si>
@@ -2008,7 +2008,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,6 +2077,9 @@
       <c r="B7" t="s">
         <v>64</v>
       </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2084,6 +2087,9 @@
       </c>
       <c r="B8" t="s">
         <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">

--- a/tools/TODO.xlsx
+++ b/tools/TODO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
   <si>
     <t>créer des data de cv remplis</t>
   </si>
@@ -1005,6 +1005,24 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>conflict</t>
+  </si>
+  <si>
+    <t>chgt contrat - vrai</t>
+  </si>
+  <si>
+    <t>avantage</t>
+  </si>
+  <si>
+    <t>resume chgt contrat</t>
+  </si>
+  <si>
+    <t>fiche de poste</t>
+  </si>
+  <si>
+    <t>generer fiche de poste</t>
   </si>
 </sst>
 </file>
@@ -2005,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2016,7 +2034,7 @@
     <col min="1" max="1" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -2024,31 +2042,40 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -2058,8 +2085,11 @@
       <c r="C5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -2070,7 +2100,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -2081,7 +2111,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -2092,7 +2122,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2100,7 +2130,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -2108,12 +2138,52 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/tools/TODO.xlsx
+++ b/tools/TODO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="114">
   <si>
     <t>créer des data de cv remplis</t>
   </si>
@@ -1023,6 +1023,39 @@
   </si>
   <si>
     <t>generer fiche de poste</t>
+  </si>
+  <si>
+    <t>demande de congé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">front demande congé </t>
+  </si>
+  <si>
+    <t>front validation conge</t>
+  </si>
+  <si>
+    <t>front etat de paie</t>
+  </si>
+  <si>
+    <t>fiche de paie</t>
+  </si>
+  <si>
+    <t>front fiche de paie</t>
+  </si>
+  <si>
+    <t>metier validation congé</t>
+  </si>
+  <si>
+    <t>etat de paie</t>
+  </si>
+  <si>
+    <t>manambatra ny efa vita</t>
+  </si>
+  <si>
+    <t>ny avo sy harena</t>
+  </si>
+  <si>
+    <t>elito</t>
   </si>
 </sst>
 </file>
@@ -2023,15 +2056,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2129,6 +2163,9 @@
       <c r="B9" t="s">
         <v>95</v>
       </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2137,52 +2174,133 @@
       <c r="B10" t="s">
         <v>63</v>
       </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
       </c>
     </row>

--- a/tools/TODO.xlsx
+++ b/tools/TODO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
   <si>
     <t>créer des data de cv remplis</t>
   </si>
@@ -2056,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2232,7 +2232,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -2240,15 +2240,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -2288,19 +2291,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>107</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>64</v>
       </c>
     </row>

--- a/tools/TODO.xlsx
+++ b/tools/TODO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="114">
   <si>
     <t>créer des data de cv remplis</t>
   </si>
@@ -2056,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2202,15 +2202,15 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -2234,26 +2234,26 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
         <v>113</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>113</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
         <v>113</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>113</v>
@@ -2285,15 +2285,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
@@ -2301,17 +2304,9 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" t="s">
         <v>64</v>
       </c>
     </row>

--- a/tools/TODO.xlsx
+++ b/tools/TODO.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="2eme fieretatory" sheetId="2" r:id="rId2"/>
     <sheet name="3 eme fieretatory - contrat" sheetId="3" r:id="rId3"/>
+    <sheet name="etat et fiche de paie details" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="122">
   <si>
     <t>créer des data de cv remplis</t>
   </si>
@@ -1056,6 +1057,30 @@
   </si>
   <si>
     <t>elito</t>
+  </si>
+  <si>
+    <t>getAllEmploye</t>
+  </si>
+  <si>
+    <t>creation fonction controller creationMajFichePaie($idEmploye)</t>
+  </si>
+  <si>
+    <t>creation view back_test preFichePaie</t>
+  </si>
+  <si>
+    <t>creation fonction controller  genererFichePaie -&gt; save des trucs + generation fiche de paie</t>
+  </si>
+  <si>
+    <t>creation vue v_fiche_paie</t>
+  </si>
+  <si>
+    <t>creation view back_test fichePaie</t>
+  </si>
+  <si>
+    <t>rehefa vita demande conge -&gt; absence deductible ra misy</t>
+  </si>
+  <si>
+    <t>creation view back_test listeEmployeFiche</t>
   </si>
 </sst>
 </file>
@@ -2058,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2313,4 +2338,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>